--- a/biology/Médecine/Angiocholite/Angiocholite.xlsx
+++ b/biology/Médecine/Angiocholite/Angiocholite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angiocholite est une infection de la bile sur obstacle lithiasique obstruant la voie biliaire principale.
 </t>
@@ -511,10 +523,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute élévation de la pression au-delà de 35 cm d'eau a pour conséquence une distension des voies biliaires qui se traduit sur le plan clinique par une douleur de type biliaire, la rétention de bile infectée des canalicules biliaires vers les sinusoïdes puis vers la circulation générale à travers le carrefour cavo-sus-hépatique : c'est le reflux cholangio-veineux, avec comme conséquence un ictère et une bactériémie (frissons). Dans les formes graves, la bile infectée se trouve sous une haute pression à l’intérieur des voies biliaires, la bactériémie est alors massive et répétée : c'est une véritable septicémie. La libération d'endotoxines bactériennes et des médiateurs leucocytaires de l'inflammation déclenche une cascade de réactions aboutissant à la défaillance uni- ou polyviscérale. Par ailleurs la rétention d'acides biliaires, néphrotoxiques, peuvent entrainer une insuffisance rénale aiguë (IRA) par nécrose tubulaire aiguë[1],[2]. Le reflux massif et répété de bile infectée à travers le foie fait que ses moyens d'épuration sont dépassés, il en résulte la formation d’abcès hépatiques abcès angiocholitiques).
-L'obstruction brutale de la voie biliaire principale (le plus souvent — 90 % des cas — par un calcul biliaire issu de la vésicule, parfois par des parasites[3], ou par une tumeur type papillomatose) va entraîner la stase biliaire, avec la douleur de distension hépatique. Ce liquide de stase va se surinfecter, avec des risques de passages bactériémiques (proximité des pédicules portaux et des canalicules biliaires dans l'ensemble du foie ; importance du débit sanguin intra-hépatique). L'ictère va ensuite s'installer, progressivement, avec selles décolorées et urines foncées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute élévation de la pression au-delà de 35 cm d'eau a pour conséquence une distension des voies biliaires qui se traduit sur le plan clinique par une douleur de type biliaire, la rétention de bile infectée des canalicules biliaires vers les sinusoïdes puis vers la circulation générale à travers le carrefour cavo-sus-hépatique : c'est le reflux cholangio-veineux, avec comme conséquence un ictère et une bactériémie (frissons). Dans les formes graves, la bile infectée se trouve sous une haute pression à l’intérieur des voies biliaires, la bactériémie est alors massive et répétée : c'est une véritable septicémie. La libération d'endotoxines bactériennes et des médiateurs leucocytaires de l'inflammation déclenche une cascade de réactions aboutissant à la défaillance uni- ou polyviscérale. Par ailleurs la rétention d'acides biliaires, néphrotoxiques, peuvent entrainer une insuffisance rénale aiguë (IRA) par nécrose tubulaire aiguë,. Le reflux massif et répété de bile infectée à travers le foie fait que ses moyens d'épuration sont dépassés, il en résulte la formation d’abcès hépatiques abcès angiocholitiques).
+L'obstruction brutale de la voie biliaire principale (le plus souvent — 90 % des cas — par un calcul biliaire issu de la vésicule, parfois par des parasites, ou par une tumeur type papillomatose) va entraîner la stase biliaire, avec la douleur de distension hépatique. Ce liquide de stase va se surinfecter, avec des risques de passages bactériémiques (proximité des pédicules portaux et des canalicules biliaires dans l'ensemble du foie ; importance du débit sanguin intra-hépatique). L'ictère va ensuite s'installer, progressivement, avec selles décolorées et urines foncées.
 Le risque principal est lié à la gravité et à la brutalité de l'infection, avec septicémie, choc septique, anurie et coma.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la classique triade de Charcot[4] : douleur de type biliaire, fièvre à 40 °C, et ictère progressant rapidement, ces signes s'installant l'un après l'autre en 48 heures. Ces signes cliniques sont pathognomoniques, et imposent dès l'arrivée du patient de commencer le traitement médical : réhydratation intraveineuse, antibiotique à large spectre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la classique triade de Charcot : douleur de type biliaire, fièvre à 40 °C, et ictère progressant rapidement, ces signes s'installant l'un après l'autre en 48 heures. Ces signes cliniques sont pathognomoniques, et imposent dès l'arrivée du patient de commencer le traitement médical : réhydratation intraveineuse, antibiotique à large spectre.
 En cas d'évolution de l'angiocholite, les choses s'aggravent rapidement, avec constitution d'un choc septique, anurie, coma, voire décès rapide en l'absence de traitement.
 Les signes peuvent être dissociés, dans des tableaux d'obstruction incomplète : douleur et fièvre, avec un ictère fluctuant, ou fièvre isolée.
 </t>
@@ -577,7 +593,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bilan biologique doit être réalisé rapidement, pour quantifier la cholestase et le syndrome inflammatoire. Il est également nécessaire de faire un bilan de la fonction rénale, de la coagulation sanguine, du pH sanguin, pour vérifier l'absence de complications.
 L'échographie confirme rapidement la dilatation des voies biliaires intra-hépatiques, et permet parfois de voir le calcul cholédocien responsable. Le scanner montre les mêmes images, sans apporter de précision.
@@ -611,9 +629,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'angiocholite est une urgence médicale[4]. Dès la suspicion de ce diagnostic, il convient de mettre en place une voie veineuse, qui permet d'amorcer une réhydratation, et une antibiothérapie à large spectre. On favorise des antibiotiques à large spectre, et à bonne diffusion biliaire : ceftriaxone ou ciprofloxacine.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angiocholite est une urgence médicale. Dès la suspicion de ce diagnostic, il convient de mettre en place une voie veineuse, qui permet d'amorcer une réhydratation, et une antibiothérapie à large spectre. On favorise des antibiotiques à large spectre, et à bonne diffusion biliaire : ceftriaxone ou ciprofloxacine.
 De plus, le cathétérisme rétrograde de la papille doit être envisagé en urgence, pour réalisation d'une sphinctérotomie et une extraction des calculs cholédociens. Une guérison ne peut être possible sans la levée de l'obstacle et l'évacuation de l'infection.
 Sans traitement, le patient peut développer un abcès hépatique, voire un choc septique.
 La chirurgie n'est à envisager dans cette pathologie qu'en cas de cathétérisme rétrograde impossible (diverticule de la papille, antécédents de gastrectomie, ERCP non disponible…). Elle consiste en une dérivation bilio-digestive : anastomose cholédoco-duodénale (Sasse) ou cholédoco-jéjunale sur anse en Y.
